--- a/data/trans_bre/P15_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>131,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-40,04%</t>
+          <t>-36,43%</t>
         </is>
       </c>
     </row>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 8,72</t>
+          <t>-5,62; 12,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 3,54</t>
+          <t>-30,23; 10,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-80,11; 620,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-80,25; 49,82</t>
+          <t>-79,08; 116,49</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-53,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>67,11%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 2,62</t>
+          <t>-11,75; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,03</t>
+          <t>-11,54; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 2,33</t>
+          <t>-16,69; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 9,25</t>
+          <t>-6,8; 10,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,19; 620,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>-53,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 0,0</t>
+          <t>-9,73; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,99</t>
+          <t>-6,64; 1,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 5,69</t>
+          <t>-7,49; 5,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 8,65</t>
+          <t>-7,35; 11,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-94,67; 683,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 203,23</t>
+          <t>-52,75; 252,55</t>
         </is>
       </c>
     </row>
@@ -920,22 +920,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>239,67%</t>
+          <t>206,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,7%</t>
+          <t>-36,28%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,88</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,86</t>
+          <t>-6,14; 3,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,63</t>
+          <t>-1,64; 7,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 2,33</t>
+          <t>-13,86; 4,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,1; 35,93</t>
+          <t>-78,09; 89,01</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1020,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>380,33%</t>
+          <t>837,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>73,36%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,42</t>
+          <t>0,0; 9,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 11,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 13,4</t>
+          <t>3,45; 24,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 10,52</t>
+          <t>-4,14; 18,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,9; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 277,81</t>
+          <t>-45,24; 524,51</t>
         </is>
       </c>
     </row>
@@ -1120,27 +1120,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,83%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-60,85%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,5%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,89</t>
+          <t>-8,81; 3,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 0,0</t>
+          <t>-11,32; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,1</t>
+          <t>-15,55; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,99</t>
+          <t>-11,04; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1235,27 +1235,27 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>-45,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>-10,82%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,15</t>
+          <t>-1,81; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,98</t>
+          <t>-2,43; 0,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,07</t>
+          <t>-1,72; 4,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,92</t>
+          <t>-7,13; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-80,38; 669,69</t>
+          <t>-100,0; 553,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 351,93</t>
+          <t>-91,31; 148,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 194,93</t>
+          <t>-40,88; 247,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 27,92</t>
+          <t>-49,05; 41,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,95</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>131,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-36,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.866103087495568</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-14.04461665602452</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.636876412753328</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4858336024705918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 12,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-30,23; 10,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-79,08; 116,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-3.493522377910582</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-37.57626934328146</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.8346104920938535</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>13.15756332532956</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.242509721835869</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>0.733478163910659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,48</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>67,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; 10,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.205541542406485</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.649579226103617</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.627972281526396</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.886313436304794</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8078633367523591</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-53,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,21%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.74699970628023</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.587155622536974</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-16.97887259534989</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.555749187063728</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,64; 1,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 5,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; 11,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-52,75; 252,55</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.87081890808835</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +787,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-19,21%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>206,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-36,28%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.744261763213123</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7940771312202545</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5108011558297556</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.646002003924231</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5283243433261134</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1477389403335017</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1785059510677526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 3,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 7,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,86; 4,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-78,09; 89,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.731908632518131</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.058459083499923</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.767092367387217</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.586820818868942</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.5481420691609545</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.426651874525421</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.87790869854041</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.43072397222488</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>2.410831105067137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,65</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>837,7%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>73,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 24,08</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 18,8</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-45,24; 524,51</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.122230455067944</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3798288394737337</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.694570784585588</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.748981162871615</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1648674833429759</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.246559872012206</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3849409502613336</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,53</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,82</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-26,29%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.746046322348172</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.444928205933596</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-15.31289865308332</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.7864819997296496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,81; 3,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,55; 0,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 0,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.341344979907497</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.04448128852986</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.492420946658449</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.052124566700612</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>0.8819233004938594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +965,273 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-10,59%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-45,79%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>41,56%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-10,82%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.848253758740552</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.867158553065607</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>11.06292774028853</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6.95460804996944</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>9.476198256665207</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.8675391132065355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 1,15</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 0,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 4,0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 3,02</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 553,73</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-91,31; 148,35</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 247,51</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-49,05; 41,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>3.655810590149884</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-3.84375992584615</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-0.4142062127212255</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.227218144216986</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.65897073895938</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>24.99492744704807</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>21.58450138507937</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>5.95566096683605</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.6957031840096557</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-2.311053004680851</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-4.781665537544446</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-2.492193433594152</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2629360147344167</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.812609092820297</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.21835322546551</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-15.77756446835494</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-11.41463792959068</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>3.887148740579193</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.1099566539532557</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.5598454104828979</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.332509189795214</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-1.922332626563615</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.1058932447205487</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.4082145458724343</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4806360431666521</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1739603632676624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.8145429823564</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.160734516142202</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.50171551429707</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-8.377446899038615</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.903315777071144</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.4026640186721686</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.5418225176984593</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.148081046780451</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.5826176612988075</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.047823192904778</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.696592758916597</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>5.537293364819738</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.711650135796682</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.670351095897241</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.3343935621883107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
